--- a/OPM经济数值/琦玉日常.xlsx
+++ b/OPM经济数值/琦玉日常.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3487AE-4309-4238-A87D-356E46F27922}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B00BB4-F984-409B-8D7E-5756C8E36588}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="琦玉升级" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>色子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +150,46 @@
   </si>
   <si>
     <t>每色子现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费一拳次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个色子经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦玉家经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一圈经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +263,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,75 +547,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O6" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O7" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O8" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -579,16 +651,27 @@
         <f>B6-B7-B8</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O9" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O11" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -596,8 +679,17 @@
         <f>B11/AVERAGE(1,2,3,4,5,6)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -608,8 +700,17 @@
       <c r="D13" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -620,8 +721,18 @@
       <c r="D14" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1">
+        <f>H12+H13</f>
+        <v>30</v>
+      </c>
+      <c r="O14" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -629,16 +740,34 @@
         <f>B14/10</f>
         <v>185.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1">
+        <f>H14*B11/B12</f>
+        <v>105</v>
+      </c>
+      <c r="O15" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O17" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -646,8 +775,11 @@
         <f>B17/6</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O18" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -655,8 +787,11 @@
         <f>B14*B18/B12</f>
         <v>3714</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O19" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -664,16 +799,22 @@
         <f>B18/B12*B13</f>
         <v>268</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O20" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O21" s="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -681,8 +822,16 @@
         <f>B20/B21</f>
         <v>26.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O22" s="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -690,8 +839,11 @@
         <f>B12*6</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O24" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -699,8 +851,11 @@
         <f>B24/10</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O25" s="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -711,13 +866,24 @@
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O26" s="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="1">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O28" s="1">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>102</v>
       </c>
@@ -738,8 +904,11 @@
         <f>D29&amp;",1|coin,"&amp;E29*100</f>
         <v>prop,102,1|coin,100</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O29" s="1">
+        <v>100003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>103</v>
       </c>
@@ -760,8 +929,11 @@
         <f>F29&amp;";"&amp;D30&amp;",1|coin,"&amp;E30*100</f>
         <v>prop,102,1|coin,100;prop,103,1|coin,200</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O30" s="1">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>104</v>
       </c>
@@ -782,8 +954,11 @@
         <f t="shared" ref="F31:F32" si="1">F30&amp;";"&amp;D31&amp;",1|coin,"&amp;E31*100</f>
         <v>prop,102,1|coin,100;prop,103,1|coin,200;prop,104,1|coin,600</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="O31" s="1">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>105</v>
       </c>
@@ -804,21 +979,768 @@
         <f t="shared" si="1"/>
         <v>prop,102,1|coin,100;prop,103,1|coin,200;prop,104,1|coin,600;prop,105,1|coin,2000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O32" s="1">
+        <v>100102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O33" s="1">
+        <v>100103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="1">
         <f>100/150</f>
         <v>0.66666666666666663</v>
+      </c>
+      <c r="O34" s="1">
+        <v>100104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="1">
+        <v>100105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O36" s="1">
+        <v>100106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O37" s="1">
+        <v>100107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="1">
+        <v>100108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O39" s="1">
+        <v>100109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O40" s="1">
+        <v>100110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="1">
+        <v>100111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="1">
+        <v>100112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="1">
+        <v>100113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="1">
+        <v>100114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="1">
+        <v>100115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="1">
+        <v>100116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="1">
+        <v>100117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="1">
+        <v>100118</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="1">
+        <v>100119</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="1">
+        <v>100120</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="1">
+        <v>100121</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="1">
+        <v>100122</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="1">
+        <v>100123</v>
+      </c>
+    </row>
+    <row r="54" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="1">
+        <v>100124</v>
+      </c>
+    </row>
+    <row r="55" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O55" s="1">
+        <v>100125</v>
+      </c>
+    </row>
+    <row r="56" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O56" s="1">
+        <v>100126</v>
+      </c>
+    </row>
+    <row r="57" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="1">
+        <v>100127</v>
+      </c>
+    </row>
+    <row r="58" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="1">
+        <v>100128</v>
+      </c>
+    </row>
+    <row r="59" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="1">
+        <v>100129</v>
+      </c>
+    </row>
+    <row r="60" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="1">
+        <v>100130</v>
+      </c>
+    </row>
+    <row r="61" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="1">
+        <v>100131</v>
+      </c>
+    </row>
+    <row r="62" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="1">
+        <v>100132</v>
+      </c>
+    </row>
+    <row r="63" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="1">
+        <v>100133</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="1">
+        <v>100134</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="1">
+        <v>100135</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="1">
+        <v>100136</v>
+      </c>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O67" s="1">
+        <v>100137</v>
+      </c>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="1">
+        <v>100138</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="1">
+        <v>100139</v>
+      </c>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="1">
+        <v>100140</v>
+      </c>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="1">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="1">
+        <v>300101</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="1">
+        <v>300102</v>
+      </c>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="1">
+        <v>300103</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="1">
+        <v>300104</v>
+      </c>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="1">
+        <v>300105</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="1">
+        <v>300106</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O78" s="1">
+        <v>300107</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O79" s="1">
+        <v>300108</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="1">
+        <v>300109</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="1">
+        <v>300110</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O82" s="1">
+        <v>300111</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="1">
+        <v>300112</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="1">
+        <v>300113</v>
+      </c>
+    </row>
+    <row r="85" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="1">
+        <v>300114</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="1">
+        <v>300115</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="1">
+        <v>300116</v>
+      </c>
+    </row>
+    <row r="88" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="1">
+        <v>300117</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="1">
+        <v>300118</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O90" s="1">
+        <v>300119</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="1">
+        <v>300120</v>
+      </c>
+    </row>
+    <row r="92" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="1">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="93" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="1">
+        <v>200101</v>
+      </c>
+    </row>
+    <row r="94" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="1">
+        <v>200102</v>
+      </c>
+    </row>
+    <row r="95" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O95" s="1">
+        <v>200103</v>
+      </c>
+    </row>
+    <row r="96" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="1">
+        <v>200104</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="1">
+        <v>200105</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="1">
+        <v>200106</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="1">
+        <v>200107</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="1">
+        <v>200108</v>
+      </c>
+    </row>
+    <row r="101" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="1">
+        <v>200109</v>
+      </c>
+    </row>
+    <row r="102" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O102" s="1">
+        <v>200110</v>
+      </c>
+    </row>
+    <row r="103" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O103" s="1">
+        <v>200111</v>
+      </c>
+    </row>
+    <row r="104" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O104" s="1">
+        <v>200112</v>
+      </c>
+    </row>
+    <row r="105" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O105" s="1">
+        <v>200113</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O106" s="1">
+        <v>200114</v>
+      </c>
+    </row>
+    <row r="107" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O107" s="1">
+        <v>200115</v>
+      </c>
+    </row>
+    <row r="108" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O108" s="1">
+        <v>200116</v>
+      </c>
+    </row>
+    <row r="109" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O109" s="1">
+        <v>200117</v>
+      </c>
+    </row>
+    <row r="110" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O110" s="1">
+        <v>200118</v>
+      </c>
+    </row>
+    <row r="111" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O111" s="1">
+        <v>200119</v>
+      </c>
+    </row>
+    <row r="112" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O112" s="1">
+        <v>200120</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O113" s="1">
+        <v>200121</v>
+      </c>
+    </row>
+    <row r="114" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O114" s="1">
+        <v>200122</v>
+      </c>
+    </row>
+    <row r="115" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O115" s="1">
+        <v>200123</v>
+      </c>
+    </row>
+    <row r="116" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O116" s="1">
+        <v>200124</v>
+      </c>
+    </row>
+    <row r="117" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O117" s="1">
+        <v>200125</v>
+      </c>
+    </row>
+    <row r="118" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O118" s="1">
+        <v>200126</v>
+      </c>
+    </row>
+    <row r="119" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O119" s="1">
+        <v>200127</v>
+      </c>
+    </row>
+    <row r="120" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O120" s="1">
+        <v>200128</v>
+      </c>
+    </row>
+    <row r="121" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O121" s="1">
+        <v>200129</v>
+      </c>
+    </row>
+    <row r="122" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O122" s="1">
+        <v>200130</v>
+      </c>
+    </row>
+    <row r="123" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O123" s="1">
+        <v>200131</v>
+      </c>
+    </row>
+    <row r="124" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O124" s="1">
+        <v>200132</v>
+      </c>
+    </row>
+    <row r="125" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O125" s="1">
+        <v>200133</v>
+      </c>
+    </row>
+    <row r="126" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O126" s="1">
+        <v>200134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA5FD04-0183-44A2-A8D7-06F4563650BB}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <f>FLOOR($G$2*D2,100)</f>
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>SUM($D$2:D2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>Sheet1!H15</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B13" si="0">FLOOR($G$2*D3,100)</f>
+        <v>200</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>SUM($D$2:D3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <f>SUM($D$2:D4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <f>SUM($D$2:D5)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <f>SUM($D$2:D6)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5">
+        <f>SUM($D$2:D7)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>60</v>
+      </c>
+      <c r="E8" s="5">
+        <f>SUM($D$2:D8)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>9400</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5">
+        <f>SUM($D$2:D9)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5">
+        <f>SUM($D$2:D10)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>18900</v>
+      </c>
+      <c r="C11" s="5">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5">
+        <v>180</v>
+      </c>
+      <c r="E11" s="5">
+        <f>SUM($D$2:D11)</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+      <c r="C12" s="5">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5">
+        <v>360</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM($D$2:D12)</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>75600</v>
+      </c>
+      <c r="C13" s="5">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5">
+        <v>720</v>
+      </c>
+      <c r="E13" s="5">
+        <f>SUM($D$2:D13)</f>
+        <v>1590</v>
+      </c>
+      <c r="G13">
+        <f>B13/G2</f>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
